--- a/Code/Results/Cases/Case_2_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014182447416045</v>
+        <v>1.035073802085231</v>
       </c>
       <c r="D2">
-        <v>1.03408932192801</v>
+        <v>1.044883814922542</v>
       </c>
       <c r="E2">
-        <v>1.03111901945804</v>
+        <v>1.053160801652799</v>
       </c>
       <c r="F2">
-        <v>1.040947138598976</v>
+        <v>1.058778293861671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054163002566626</v>
+        <v>1.042831549444113</v>
       </c>
       <c r="J2">
-        <v>1.035947083319976</v>
+        <v>1.040189568209835</v>
       </c>
       <c r="K2">
-        <v>1.045093320153488</v>
+        <v>1.047653611860067</v>
       </c>
       <c r="L2">
-        <v>1.04216119424033</v>
+        <v>1.055907536164126</v>
       </c>
       <c r="M2">
-        <v>1.051864033404187</v>
+        <v>1.061509598669011</v>
       </c>
       <c r="N2">
-        <v>1.015880449118794</v>
+        <v>1.017369357015482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017713329193422</v>
+        <v>1.03582037655637</v>
       </c>
       <c r="D3">
-        <v>1.036759140022326</v>
+        <v>1.045472992837573</v>
       </c>
       <c r="E3">
-        <v>1.034548839165333</v>
+        <v>1.053970331342616</v>
       </c>
       <c r="F3">
-        <v>1.044245592922245</v>
+        <v>1.059538130331408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055283769467291</v>
+        <v>1.043016063171804</v>
       </c>
       <c r="J3">
-        <v>1.037732488260672</v>
+        <v>1.040580564541448</v>
       </c>
       <c r="K3">
-        <v>1.046942330499448</v>
+        <v>1.048054697361961</v>
       </c>
       <c r="L3">
-        <v>1.044757950964021</v>
+        <v>1.056530064234971</v>
       </c>
       <c r="M3">
-        <v>1.054341992772858</v>
+        <v>1.062083672563085</v>
       </c>
       <c r="N3">
-        <v>1.016473908618321</v>
+        <v>1.017499070364507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019957749783658</v>
+        <v>1.036304033056783</v>
       </c>
       <c r="D4">
-        <v>1.038458814020254</v>
+        <v>1.045854727069718</v>
       </c>
       <c r="E4">
-        <v>1.036737455777646</v>
+        <v>1.054495528983501</v>
       </c>
       <c r="F4">
-        <v>1.046347959057783</v>
+        <v>1.060030805465144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055986807484739</v>
+        <v>1.043134439233762</v>
       </c>
       <c r="J4">
-        <v>1.038864354589918</v>
+        <v>1.040833434382065</v>
       </c>
       <c r="K4">
-        <v>1.04811421701304</v>
+        <v>1.04831402299505</v>
       </c>
       <c r="L4">
-        <v>1.046411823680406</v>
+        <v>1.056933602957422</v>
       </c>
       <c r="M4">
-        <v>1.055917423118871</v>
+        <v>1.06245548010675</v>
       </c>
       <c r="N4">
-        <v>1.016850132149863</v>
+        <v>1.017582947521202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020891923978213</v>
+        <v>1.036507497472811</v>
       </c>
       <c r="D5">
-        <v>1.039166842297102</v>
+        <v>1.04601532511971</v>
       </c>
       <c r="E5">
-        <v>1.037650408981187</v>
+        <v>1.054716649755097</v>
       </c>
       <c r="F5">
-        <v>1.047224347821867</v>
+        <v>1.060238165750552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056277142897695</v>
+        <v>1.043183960247539</v>
       </c>
       <c r="J5">
-        <v>1.03933471016204</v>
+        <v>1.040939708215503</v>
       </c>
       <c r="K5">
-        <v>1.048601125297335</v>
+        <v>1.04842299336856</v>
       </c>
       <c r="L5">
-        <v>1.047100952780114</v>
+        <v>1.057103421562356</v>
       </c>
       <c r="M5">
-        <v>1.056573195514441</v>
+        <v>1.062611868429804</v>
       </c>
       <c r="N5">
-        <v>1.017006472737253</v>
+        <v>1.017618195601563</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021048233435477</v>
+        <v>1.036541667917029</v>
       </c>
       <c r="D6">
-        <v>1.039285345852072</v>
+        <v>1.046042297042246</v>
       </c>
       <c r="E6">
-        <v>1.037803285039052</v>
+        <v>1.05475379605817</v>
       </c>
       <c r="F6">
-        <v>1.047371066509227</v>
+        <v>1.060272996445564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056325587732921</v>
+        <v>1.043192260692864</v>
       </c>
       <c r="J6">
-        <v>1.039413367018579</v>
+        <v>1.040957550107411</v>
       </c>
       <c r="K6">
-        <v>1.04868254550151</v>
+        <v>1.048441286993739</v>
       </c>
       <c r="L6">
-        <v>1.047216304016883</v>
+        <v>1.057131944824579</v>
       </c>
       <c r="M6">
-        <v>1.056682923668279</v>
+        <v>1.062638131382562</v>
       </c>
       <c r="N6">
-        <v>1.017032617190526</v>
+        <v>1.017624113082344</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019970268776265</v>
+        <v>1.036306751229352</v>
       </c>
       <c r="D7">
-        <v>1.038468300119594</v>
+        <v>1.045856872531516</v>
       </c>
       <c r="E7">
-        <v>1.036749682489713</v>
+        <v>1.054498482325224</v>
       </c>
       <c r="F7">
-        <v>1.046359698399133</v>
+        <v>1.060033575284457</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055990707366012</v>
+        <v>1.043135101896951</v>
       </c>
       <c r="J7">
-        <v>1.03887066088022</v>
+        <v>1.040834854548147</v>
       </c>
       <c r="K7">
-        <v>1.048120745548786</v>
+        <v>1.048315479261224</v>
       </c>
       <c r="L7">
-        <v>1.04642105584694</v>
+        <v>1.056935871412556</v>
       </c>
       <c r="M7">
-        <v>1.055926211066813</v>
+        <v>1.062457569461355</v>
       </c>
       <c r="N7">
-        <v>1.016852228294832</v>
+        <v>1.017583418562876</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015384233001725</v>
+        <v>1.035325990641395</v>
       </c>
       <c r="D8">
-        <v>1.034997469261806</v>
+        <v>1.045082826343351</v>
       </c>
       <c r="E8">
-        <v>1.032284629799543</v>
+        <v>1.053434099417938</v>
       </c>
       <c r="F8">
-        <v>1.04206860828718</v>
+        <v>1.05903487369748</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054546415331023</v>
+        <v>1.042894116691068</v>
       </c>
       <c r="J8">
-        <v>1.036555392355218</v>
+        <v>1.040321733578143</v>
       </c>
       <c r="K8">
-        <v>1.04572336052217</v>
+        <v>1.047789201877612</v>
       </c>
       <c r="L8">
-        <v>1.043044346517348</v>
+        <v>1.056117771988899</v>
       </c>
       <c r="M8">
-        <v>1.052707361327501</v>
+        <v>1.061703537475448</v>
       </c>
       <c r="N8">
-        <v>1.016082647853706</v>
+        <v>1.017413205580868</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006981912706536</v>
+        <v>1.033602238235742</v>
       </c>
       <c r="D9">
-        <v>1.028660469208847</v>
+        <v>1.043722748000304</v>
       </c>
       <c r="E9">
-        <v>1.024171655802457</v>
+        <v>1.05156916881499</v>
       </c>
       <c r="F9">
-        <v>1.034252885517922</v>
+        <v>1.057282866151029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051827497719722</v>
+        <v>1.042461723100217</v>
       </c>
       <c r="J9">
-        <v>1.032290508006908</v>
+        <v>1.039416603675656</v>
       </c>
       <c r="K9">
-        <v>1.04130505542496</v>
+        <v>1.046860337290418</v>
       </c>
       <c r="L9">
-        <v>1.036884370549968</v>
+        <v>1.054681780631479</v>
       </c>
       <c r="M9">
-        <v>1.046813645500968</v>
+        <v>1.060377544522397</v>
       </c>
       <c r="N9">
-        <v>1.014665058289032</v>
+        <v>1.017112859446383</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001146104026406</v>
+        <v>1.032456192697359</v>
       </c>
       <c r="D10">
-        <v>1.024276362138567</v>
+        <v>1.042818760289379</v>
       </c>
       <c r="E10">
-        <v>1.018583990919757</v>
+        <v>1.050333170513229</v>
       </c>
       <c r="F10">
-        <v>1.028857517476782</v>
+        <v>1.056120256777151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049891993348057</v>
+        <v>1.042168305549472</v>
       </c>
       <c r="J10">
-        <v>1.029314323344834</v>
+        <v>1.038812626060891</v>
       </c>
       <c r="K10">
-        <v>1.038220709887153</v>
+        <v>1.046240171842428</v>
       </c>
       <c r="L10">
-        <v>1.032625621281509</v>
+        <v>1.053728328041574</v>
       </c>
       <c r="M10">
-        <v>1.042724581126131</v>
+        <v>1.059495475410758</v>
       </c>
       <c r="N10">
-        <v>1.013675912559551</v>
+        <v>1.016912380913714</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9985592233912052</v>
+        <v>1.031960707386233</v>
       </c>
       <c r="D11">
-        <v>1.022337609830564</v>
+        <v>1.042427995986613</v>
       </c>
       <c r="E11">
-        <v>1.016118642163756</v>
+        <v>1.049799725907993</v>
       </c>
       <c r="F11">
-        <v>1.026474128331592</v>
+        <v>1.055618141370311</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049023330705541</v>
+        <v>1.042040041062766</v>
       </c>
       <c r="J11">
-        <v>1.027992063432696</v>
+        <v>1.038550981281008</v>
       </c>
       <c r="K11">
-        <v>1.036850218012281</v>
+        <v>1.045971432330042</v>
       </c>
       <c r="L11">
-        <v>1.030742854419556</v>
+        <v>1.05331641431974</v>
       </c>
       <c r="M11">
-        <v>1.040913474448665</v>
+        <v>1.059114009009518</v>
       </c>
       <c r="N11">
-        <v>1.013236494656541</v>
+        <v>1.016825518502492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975889429578927</v>
+        <v>1.031776778232341</v>
       </c>
       <c r="D12">
-        <v>1.021611169117144</v>
+        <v>1.042282951136235</v>
       </c>
       <c r="E12">
-        <v>1.0151957100916</v>
+        <v>1.049601846118984</v>
       </c>
       <c r="F12">
-        <v>1.025581450893854</v>
+        <v>1.055431831224807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048695948433203</v>
+        <v>1.041992216618122</v>
       </c>
       <c r="J12">
-        <v>1.027495694732012</v>
+        <v>1.038453778289765</v>
       </c>
       <c r="K12">
-        <v>1.036335723740383</v>
+        <v>1.045871581328907</v>
       </c>
       <c r="L12">
-        <v>1.030037462131828</v>
+        <v>1.053163553926309</v>
       </c>
       <c r="M12">
-        <v>1.040234430674649</v>
+        <v>1.058972388637944</v>
       </c>
       <c r="N12">
-        <v>1.013071547144647</v>
+        <v>1.016793246307063</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9977975032197989</v>
+        <v>1.031816226372366</v>
       </c>
       <c r="D13">
-        <v>1.021767282131234</v>
+        <v>1.042314059082656</v>
       </c>
       <c r="E13">
-        <v>1.015394012628855</v>
+        <v>1.049644279964475</v>
       </c>
       <c r="F13">
-        <v>1.025773272131731</v>
+        <v>1.055471786393279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048766388875586</v>
+        <v>1.042002483313759</v>
       </c>
       <c r="J13">
-        <v>1.027602406855861</v>
+        <v>1.038474629385306</v>
       </c>
       <c r="K13">
-        <v>1.036446333367325</v>
+        <v>1.045893001005059</v>
       </c>
       <c r="L13">
-        <v>1.030189048793093</v>
+        <v>1.05319633651231</v>
       </c>
       <c r="M13">
-        <v>1.04038037762151</v>
+        <v>1.059002763345171</v>
       </c>
       <c r="N13">
-        <v>1.013107008126692</v>
+        <v>1.016800169140241</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.998479213766966</v>
+        <v>1.031945501364101</v>
       </c>
       <c r="D14">
-        <v>1.022277691948321</v>
+        <v>1.042416004433342</v>
       </c>
       <c r="E14">
-        <v>1.016042500825384</v>
+        <v>1.049783363678092</v>
       </c>
       <c r="F14">
-        <v>1.026400491658748</v>
+        <v>1.055602736866041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048996366285402</v>
+        <v>1.042036091572584</v>
       </c>
       <c r="J14">
-        <v>1.027951141062599</v>
+        <v>1.038542946779724</v>
       </c>
       <c r="K14">
-        <v>1.036807801662369</v>
+        <v>1.04596317920212</v>
       </c>
       <c r="L14">
-        <v>1.030684671265542</v>
+        <v>1.053303775910145</v>
       </c>
       <c r="M14">
-        <v>1.040857474744691</v>
+        <v>1.059102301120944</v>
       </c>
       <c r="N14">
-        <v>1.013222895648256</v>
+        <v>1.016822851025668</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988979807246766</v>
+        <v>1.032025167403501</v>
       </c>
       <c r="D15">
-        <v>1.022591330115969</v>
+        <v>1.04247882995864</v>
       </c>
       <c r="E15">
-        <v>1.016441093511766</v>
+        <v>1.049869092964988</v>
       </c>
       <c r="F15">
-        <v>1.026785955222136</v>
+        <v>1.055683446061424</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049137433248566</v>
+        <v>1.042056774732513</v>
       </c>
       <c r="J15">
-        <v>1.028165310090317</v>
+        <v>1.038585037238509</v>
       </c>
       <c r="K15">
-        <v>1.037029788744594</v>
+        <v>1.046006414481692</v>
       </c>
       <c r="L15">
-        <v>1.030989231882514</v>
+        <v>1.053369991833933</v>
       </c>
       <c r="M15">
-        <v>1.041150585701769</v>
+        <v>1.059163639388454</v>
       </c>
       <c r="N15">
-        <v>1.013294066968552</v>
+        <v>1.016836825087005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001316490913607</v>
+        <v>1.032489092605905</v>
       </c>
       <c r="D16">
-        <v>1.02440415997249</v>
+        <v>1.042844708281179</v>
       </c>
       <c r="E16">
-        <v>1.018746616417143</v>
+        <v>1.050368610554492</v>
       </c>
       <c r="F16">
-        <v>1.029014676693475</v>
+        <v>1.056153608148876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049948988601269</v>
+        <v>1.042176792566457</v>
       </c>
       <c r="J16">
-        <v>1.029401355185622</v>
+        <v>1.038829988180486</v>
       </c>
       <c r="K16">
-        <v>1.038310913267527</v>
+        <v>1.046258003027901</v>
       </c>
       <c r="L16">
-        <v>1.032749739192839</v>
+        <v>1.053755685309412</v>
       </c>
       <c r="M16">
-        <v>1.042843905242339</v>
+        <v>1.059520802249792</v>
       </c>
       <c r="N16">
-        <v>1.013704836229381</v>
+        <v>1.01691814459049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002817240836916</v>
+        <v>1.032780305488379</v>
       </c>
       <c r="D17">
-        <v>1.025530322974936</v>
+        <v>1.043074394433468</v>
       </c>
       <c r="E17">
-        <v>1.020180324752711</v>
+        <v>1.050682415072424</v>
       </c>
       <c r="F17">
-        <v>1.030399864985873</v>
+        <v>1.056448878605194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050449781048203</v>
+        <v>1.042251752529192</v>
       </c>
       <c r="J17">
-        <v>1.030167585470067</v>
+        <v>1.038983608652525</v>
       </c>
       <c r="K17">
-        <v>1.039105046403278</v>
+        <v>1.046415764331684</v>
       </c>
       <c r="L17">
-        <v>1.033843535825935</v>
+        <v>1.05399787294838</v>
       </c>
       <c r="M17">
-        <v>1.043895073323541</v>
+        <v>1.059744969624786</v>
       </c>
       <c r="N17">
-        <v>1.013959485598564</v>
+        <v>1.016969140070335</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003686847460326</v>
+        <v>1.032950238229369</v>
       </c>
       <c r="D18">
-        <v>1.026183312534715</v>
+        <v>1.043208430831498</v>
       </c>
       <c r="E18">
-        <v>1.021012179651188</v>
+        <v>1.050865620716208</v>
       </c>
       <c r="F18">
-        <v>1.031203292423581</v>
+        <v>1.056621230352533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050738943659796</v>
+        <v>1.042295358334024</v>
       </c>
       <c r="J18">
-        <v>1.030611290084051</v>
+        <v>1.039073201353332</v>
       </c>
       <c r="K18">
-        <v>1.039564891431882</v>
+        <v>1.046507764072998</v>
       </c>
       <c r="L18">
-        <v>1.034477811325551</v>
+        <v>1.054139227235973</v>
       </c>
       <c r="M18">
-        <v>1.044504309012746</v>
+        <v>1.05987576840396</v>
       </c>
       <c r="N18">
-        <v>1.01410695032333</v>
+        <v>1.016998879640681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003982396212676</v>
+        <v>1.033008193257401</v>
       </c>
       <c r="D19">
-        <v>1.02640531343412</v>
+        <v>1.043254144633628</v>
       </c>
       <c r="E19">
-        <v>1.02129508281326</v>
+        <v>1.050928117665454</v>
       </c>
       <c r="F19">
-        <v>1.0314764808709</v>
+        <v>1.056680019060665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050837045557636</v>
+        <v>1.042310206901617</v>
       </c>
       <c r="J19">
-        <v>1.030762040310134</v>
+        <v>1.039103748154267</v>
       </c>
       <c r="K19">
-        <v>1.039721122254859</v>
+        <v>1.046539130212303</v>
       </c>
       <c r="L19">
-        <v>1.034693459244284</v>
+        <v>1.054187440661298</v>
       </c>
       <c r="M19">
-        <v>1.044711389168577</v>
+        <v>1.059920375110768</v>
       </c>
       <c r="N19">
-        <v>1.014157052575846</v>
+        <v>1.017009019164266</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002656822655391</v>
+        <v>1.032749053517104</v>
       </c>
       <c r="D20">
-        <v>1.02540989953911</v>
+        <v>1.043049744612469</v>
       </c>
       <c r="E20">
-        <v>1.020026958972521</v>
+        <v>1.050648729343794</v>
       </c>
       <c r="F20">
-        <v>1.030251717982887</v>
+        <v>1.056417185883886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050396355882351</v>
+        <v>1.042243722137558</v>
       </c>
       <c r="J20">
-        <v>1.030085711024611</v>
+        <v>1.038967127811848</v>
       </c>
       <c r="K20">
-        <v>1.039020192194903</v>
+        <v>1.046398840070148</v>
       </c>
       <c r="L20">
-        <v>1.033726567982582</v>
+        <v>1.053971879149634</v>
       </c>
       <c r="M20">
-        <v>1.043782697228136</v>
+        <v>1.059720913842525</v>
       </c>
       <c r="N20">
-        <v>1.013932275008741</v>
+        <v>1.016963669275587</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9982787296901734</v>
+        <v>1.031907429878897</v>
       </c>
       <c r="D21">
-        <v>1.022127564856617</v>
+        <v>1.042385981225418</v>
       </c>
       <c r="E21">
-        <v>1.015851738251893</v>
+        <v>1.049742399649678</v>
       </c>
       <c r="F21">
-        <v>1.02621599732971</v>
+        <v>1.05556416973539</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04892877509549</v>
+        <v>1.04202619977566</v>
       </c>
       <c r="J21">
-        <v>1.027848593204612</v>
+        <v>1.03852282945381</v>
       </c>
       <c r="K21">
-        <v>1.036701509731998</v>
+        <v>1.045942514266241</v>
       </c>
       <c r="L21">
-        <v>1.030538891721862</v>
+        <v>1.053272133731193</v>
       </c>
       <c r="M21">
-        <v>1.040717157860914</v>
+        <v>1.059072987690654</v>
       </c>
       <c r="N21">
-        <v>1.013188817854691</v>
+        <v>1.016816171982573</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9954714658425078</v>
+        <v>1.031378940692176</v>
       </c>
       <c r="D22">
-        <v>1.020027247325619</v>
+        <v>1.041969240341365</v>
       </c>
       <c r="E22">
-        <v>1.013184840701175</v>
+        <v>1.049174090190882</v>
       </c>
       <c r="F22">
-        <v>1.023635720435711</v>
+        <v>1.055028990569373</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047978658371995</v>
+        <v>1.04188838631387</v>
       </c>
       <c r="J22">
-        <v>1.026411715618108</v>
+        <v>1.038243386808157</v>
       </c>
       <c r="K22">
-        <v>1.035212133845681</v>
+        <v>1.045655436001175</v>
       </c>
       <c r="L22">
-        <v>1.028499551481521</v>
+        <v>1.052833002565026</v>
       </c>
       <c r="M22">
-        <v>1.038753053685832</v>
+        <v>1.058666035415367</v>
       </c>
       <c r="N22">
-        <v>1.012711346926161</v>
+        <v>1.016723390675708</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9969649602138582</v>
+        <v>1.03165903835722</v>
       </c>
       <c r="D23">
-        <v>1.021144213447413</v>
+        <v>1.042190105645233</v>
       </c>
       <c r="E23">
-        <v>1.014602678062577</v>
+        <v>1.04947521544309</v>
       </c>
       <c r="F23">
-        <v>1.025007739191275</v>
+        <v>1.055312589800487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048484974254113</v>
+        <v>1.041961542924634</v>
       </c>
       <c r="J23">
-        <v>1.027176368121099</v>
+        <v>1.038391533167873</v>
       </c>
       <c r="K23">
-        <v>1.036004731893966</v>
+        <v>1.045807637078229</v>
       </c>
       <c r="L23">
-        <v>1.029584054911053</v>
+        <v>1.053065715340548</v>
       </c>
       <c r="M23">
-        <v>1.039797819449901</v>
+        <v>1.0588817276608</v>
       </c>
       <c r="N23">
-        <v>1.012965434482153</v>
+        <v>1.016772579807829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002729326484428</v>
+        <v>1.032763174711802</v>
       </c>
       <c r="D24">
-        <v>1.025464325687384</v>
+        <v>1.043060882606975</v>
       </c>
       <c r="E24">
-        <v>1.020096271952147</v>
+        <v>1.050663949953387</v>
       </c>
       <c r="F24">
-        <v>1.03031867321328</v>
+        <v>1.056431506073021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050420505494995</v>
+        <v>1.042247351087726</v>
       </c>
       <c r="J24">
-        <v>1.030122716514216</v>
+        <v>1.038974574830117</v>
       </c>
       <c r="K24">
-        <v>1.039058544527854</v>
+        <v>1.04640648747668</v>
       </c>
       <c r="L24">
-        <v>1.033779432188115</v>
+        <v>1.053983624349525</v>
       </c>
       <c r="M24">
-        <v>1.043833487162334</v>
+        <v>1.059731783473968</v>
       </c>
       <c r="N24">
-        <v>1.013944573599127</v>
+        <v>1.016966141308469</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009194001759735</v>
+        <v>1.034047327591602</v>
       </c>
       <c r="D25">
-        <v>1.030326007919656</v>
+        <v>1.044073887928128</v>
       </c>
       <c r="E25">
-        <v>1.026299516914605</v>
+        <v>1.052050022866716</v>
       </c>
       <c r="F25">
-        <v>1.036304962999284</v>
+        <v>1.057734860563635</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052551606389456</v>
+        <v>1.042574419752872</v>
       </c>
       <c r="J25">
-        <v>1.033415863799212</v>
+        <v>1.039650705439779</v>
       </c>
       <c r="K25">
-        <v>1.042471109611293</v>
+        <v>1.047100639762158</v>
       </c>
       <c r="L25">
-        <v>1.03850283780408</v>
+        <v>1.055052343650818</v>
       </c>
       <c r="M25">
-        <v>1.048364670294039</v>
+        <v>1.060720013711363</v>
       </c>
       <c r="N25">
-        <v>1.015039099918457</v>
+        <v>1.017190551789341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035073802085231</v>
+        <v>1.014182447416044</v>
       </c>
       <c r="D2">
-        <v>1.044883814922542</v>
+        <v>1.03408932192801</v>
       </c>
       <c r="E2">
-        <v>1.053160801652799</v>
+        <v>1.03111901945804</v>
       </c>
       <c r="F2">
-        <v>1.058778293861671</v>
+        <v>1.040947138598975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042831549444113</v>
+        <v>1.054163002566625</v>
       </c>
       <c r="J2">
-        <v>1.040189568209835</v>
+        <v>1.035947083319976</v>
       </c>
       <c r="K2">
-        <v>1.047653611860067</v>
+        <v>1.045093320153488</v>
       </c>
       <c r="L2">
-        <v>1.055907536164126</v>
+        <v>1.04216119424033</v>
       </c>
       <c r="M2">
-        <v>1.061509598669011</v>
+        <v>1.051864033404187</v>
       </c>
       <c r="N2">
-        <v>1.017369357015482</v>
+        <v>1.015880449118794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03582037655637</v>
+        <v>1.017713329193423</v>
       </c>
       <c r="D3">
-        <v>1.045472992837573</v>
+        <v>1.036759140022326</v>
       </c>
       <c r="E3">
-        <v>1.053970331342616</v>
+        <v>1.034548839165333</v>
       </c>
       <c r="F3">
-        <v>1.059538130331408</v>
+        <v>1.044245592922245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043016063171804</v>
+        <v>1.055283769467291</v>
       </c>
       <c r="J3">
-        <v>1.040580564541448</v>
+        <v>1.037732488260673</v>
       </c>
       <c r="K3">
-        <v>1.048054697361961</v>
+        <v>1.046942330499449</v>
       </c>
       <c r="L3">
-        <v>1.056530064234971</v>
+        <v>1.044757950964021</v>
       </c>
       <c r="M3">
-        <v>1.062083672563085</v>
+        <v>1.054341992772858</v>
       </c>
       <c r="N3">
-        <v>1.017499070364507</v>
+        <v>1.016473908618321</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036304033056783</v>
+        <v>1.019957749783658</v>
       </c>
       <c r="D4">
-        <v>1.045854727069718</v>
+        <v>1.038458814020254</v>
       </c>
       <c r="E4">
-        <v>1.054495528983501</v>
+        <v>1.036737455777647</v>
       </c>
       <c r="F4">
-        <v>1.060030805465144</v>
+        <v>1.046347959057783</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043134439233762</v>
+        <v>1.055986807484738</v>
       </c>
       <c r="J4">
-        <v>1.040833434382065</v>
+        <v>1.038864354589917</v>
       </c>
       <c r="K4">
-        <v>1.04831402299505</v>
+        <v>1.048114217013039</v>
       </c>
       <c r="L4">
-        <v>1.056933602957422</v>
+        <v>1.046411823680406</v>
       </c>
       <c r="M4">
-        <v>1.06245548010675</v>
+        <v>1.055917423118871</v>
       </c>
       <c r="N4">
-        <v>1.017582947521202</v>
+        <v>1.016850132149863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036507497472811</v>
+        <v>1.020891923978213</v>
       </c>
       <c r="D5">
-        <v>1.04601532511971</v>
+        <v>1.039166842297102</v>
       </c>
       <c r="E5">
-        <v>1.054716649755097</v>
+        <v>1.037650408981187</v>
       </c>
       <c r="F5">
-        <v>1.060238165750552</v>
+        <v>1.047224347821867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043183960247539</v>
+        <v>1.056277142897696</v>
       </c>
       <c r="J5">
-        <v>1.040939708215503</v>
+        <v>1.039334710162041</v>
       </c>
       <c r="K5">
-        <v>1.04842299336856</v>
+        <v>1.048601125297336</v>
       </c>
       <c r="L5">
-        <v>1.057103421562356</v>
+        <v>1.047100952780114</v>
       </c>
       <c r="M5">
-        <v>1.062611868429804</v>
+        <v>1.056573195514442</v>
       </c>
       <c r="N5">
-        <v>1.017618195601563</v>
+        <v>1.017006472737253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036541667917029</v>
+        <v>1.021048233435477</v>
       </c>
       <c r="D6">
-        <v>1.046042297042246</v>
+        <v>1.039285345852072</v>
       </c>
       <c r="E6">
-        <v>1.05475379605817</v>
+        <v>1.037803285039051</v>
       </c>
       <c r="F6">
-        <v>1.060272996445564</v>
+        <v>1.047371066509227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043192260692864</v>
+        <v>1.056325587732921</v>
       </c>
       <c r="J6">
-        <v>1.040957550107411</v>
+        <v>1.03941336701858</v>
       </c>
       <c r="K6">
-        <v>1.048441286993739</v>
+        <v>1.04868254550151</v>
       </c>
       <c r="L6">
-        <v>1.057131944824579</v>
+        <v>1.047216304016883</v>
       </c>
       <c r="M6">
-        <v>1.062638131382562</v>
+        <v>1.056682923668279</v>
       </c>
       <c r="N6">
-        <v>1.017624113082344</v>
+        <v>1.017032617190526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036306751229352</v>
+        <v>1.019970268776264</v>
       </c>
       <c r="D7">
-        <v>1.045856872531516</v>
+        <v>1.038468300119594</v>
       </c>
       <c r="E7">
-        <v>1.054498482325224</v>
+        <v>1.036749682489712</v>
       </c>
       <c r="F7">
-        <v>1.060033575284457</v>
+        <v>1.046359698399133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043135101896951</v>
+        <v>1.055990707366012</v>
       </c>
       <c r="J7">
-        <v>1.040834854548147</v>
+        <v>1.038870660880219</v>
       </c>
       <c r="K7">
-        <v>1.048315479261224</v>
+        <v>1.048120745548785</v>
       </c>
       <c r="L7">
-        <v>1.056935871412556</v>
+        <v>1.046421055846939</v>
       </c>
       <c r="M7">
-        <v>1.062457569461355</v>
+        <v>1.055926211066812</v>
       </c>
       <c r="N7">
-        <v>1.017583418562876</v>
+        <v>1.016852228294832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035325990641395</v>
+        <v>1.015384233001725</v>
       </c>
       <c r="D8">
-        <v>1.045082826343351</v>
+        <v>1.034997469261806</v>
       </c>
       <c r="E8">
-        <v>1.053434099417938</v>
+        <v>1.032284629799543</v>
       </c>
       <c r="F8">
-        <v>1.05903487369748</v>
+        <v>1.04206860828718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042894116691068</v>
+        <v>1.054546415331023</v>
       </c>
       <c r="J8">
-        <v>1.040321733578143</v>
+        <v>1.036555392355218</v>
       </c>
       <c r="K8">
-        <v>1.047789201877612</v>
+        <v>1.04572336052217</v>
       </c>
       <c r="L8">
-        <v>1.056117771988899</v>
+        <v>1.043044346517348</v>
       </c>
       <c r="M8">
-        <v>1.061703537475448</v>
+        <v>1.052707361327501</v>
       </c>
       <c r="N8">
-        <v>1.017413205580868</v>
+        <v>1.016082647853706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033602238235742</v>
+        <v>1.006981912706537</v>
       </c>
       <c r="D9">
-        <v>1.043722748000304</v>
+        <v>1.028660469208847</v>
       </c>
       <c r="E9">
-        <v>1.05156916881499</v>
+        <v>1.024171655802457</v>
       </c>
       <c r="F9">
-        <v>1.057282866151029</v>
+        <v>1.034252885517921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042461723100217</v>
+        <v>1.051827497719722</v>
       </c>
       <c r="J9">
-        <v>1.039416603675656</v>
+        <v>1.032290508006908</v>
       </c>
       <c r="K9">
-        <v>1.046860337290418</v>
+        <v>1.04130505542496</v>
       </c>
       <c r="L9">
-        <v>1.054681780631479</v>
+        <v>1.036884370549968</v>
       </c>
       <c r="M9">
-        <v>1.060377544522397</v>
+        <v>1.046813645500967</v>
       </c>
       <c r="N9">
-        <v>1.017112859446383</v>
+        <v>1.014665058289032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032456192697359</v>
+        <v>1.001146104026406</v>
       </c>
       <c r="D10">
-        <v>1.042818760289379</v>
+        <v>1.024276362138567</v>
       </c>
       <c r="E10">
-        <v>1.050333170513229</v>
+        <v>1.018583990919756</v>
       </c>
       <c r="F10">
-        <v>1.056120256777151</v>
+        <v>1.028857517476782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042168305549472</v>
+        <v>1.049891993348057</v>
       </c>
       <c r="J10">
-        <v>1.038812626060891</v>
+        <v>1.029314323344833</v>
       </c>
       <c r="K10">
-        <v>1.046240171842428</v>
+        <v>1.038220709887154</v>
       </c>
       <c r="L10">
-        <v>1.053728328041574</v>
+        <v>1.032625621281509</v>
       </c>
       <c r="M10">
-        <v>1.059495475410758</v>
+        <v>1.042724581126131</v>
       </c>
       <c r="N10">
-        <v>1.016912380913714</v>
+        <v>1.013675912559551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031960707386233</v>
+        <v>0.9985592233912058</v>
       </c>
       <c r="D11">
-        <v>1.042427995986613</v>
+        <v>1.022337609830564</v>
       </c>
       <c r="E11">
-        <v>1.049799725907993</v>
+        <v>1.016118642163756</v>
       </c>
       <c r="F11">
-        <v>1.055618141370311</v>
+        <v>1.026474128331593</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042040041062766</v>
+        <v>1.049023330705542</v>
       </c>
       <c r="J11">
-        <v>1.038550981281008</v>
+        <v>1.027992063432696</v>
       </c>
       <c r="K11">
-        <v>1.045971432330042</v>
+        <v>1.036850218012281</v>
       </c>
       <c r="L11">
-        <v>1.05331641431974</v>
+        <v>1.030742854419556</v>
       </c>
       <c r="M11">
-        <v>1.059114009009518</v>
+        <v>1.040913474448665</v>
       </c>
       <c r="N11">
-        <v>1.016825518502492</v>
+        <v>1.013236494656541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031776778232341</v>
+        <v>0.9975889429578927</v>
       </c>
       <c r="D12">
-        <v>1.042282951136235</v>
+        <v>1.021611169117145</v>
       </c>
       <c r="E12">
-        <v>1.049601846118984</v>
+        <v>1.015195710091601</v>
       </c>
       <c r="F12">
-        <v>1.055431831224807</v>
+        <v>1.025581450893855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041992216618122</v>
+        <v>1.048695948433203</v>
       </c>
       <c r="J12">
-        <v>1.038453778289765</v>
+        <v>1.027495694732012</v>
       </c>
       <c r="K12">
-        <v>1.045871581328907</v>
+        <v>1.036335723740383</v>
       </c>
       <c r="L12">
-        <v>1.053163553926309</v>
+        <v>1.030037462131828</v>
       </c>
       <c r="M12">
-        <v>1.058972388637944</v>
+        <v>1.04023443067465</v>
       </c>
       <c r="N12">
-        <v>1.016793246307063</v>
+        <v>1.013071547144647</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031816226372366</v>
+        <v>0.9977975032197993</v>
       </c>
       <c r="D13">
-        <v>1.042314059082656</v>
+        <v>1.021767282131235</v>
       </c>
       <c r="E13">
-        <v>1.049644279964475</v>
+        <v>1.015394012628855</v>
       </c>
       <c r="F13">
-        <v>1.055471786393279</v>
+        <v>1.025773272131731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042002483313759</v>
+        <v>1.048766388875586</v>
       </c>
       <c r="J13">
-        <v>1.038474629385306</v>
+        <v>1.027602406855861</v>
       </c>
       <c r="K13">
-        <v>1.045893001005059</v>
+        <v>1.036446333367325</v>
       </c>
       <c r="L13">
-        <v>1.05319633651231</v>
+        <v>1.030189048793093</v>
       </c>
       <c r="M13">
-        <v>1.059002763345171</v>
+        <v>1.040380377621511</v>
       </c>
       <c r="N13">
-        <v>1.016800169140241</v>
+        <v>1.013107008126692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031945501364101</v>
+        <v>0.9984792137669661</v>
       </c>
       <c r="D14">
-        <v>1.042416004433342</v>
+        <v>1.022277691948321</v>
       </c>
       <c r="E14">
-        <v>1.049783363678092</v>
+        <v>1.016042500825385</v>
       </c>
       <c r="F14">
-        <v>1.055602736866041</v>
+        <v>1.026400491658749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042036091572584</v>
+        <v>1.048996366285402</v>
       </c>
       <c r="J14">
-        <v>1.038542946779724</v>
+        <v>1.027951141062599</v>
       </c>
       <c r="K14">
-        <v>1.04596317920212</v>
+        <v>1.036807801662369</v>
       </c>
       <c r="L14">
-        <v>1.053303775910145</v>
+        <v>1.030684671265543</v>
       </c>
       <c r="M14">
-        <v>1.059102301120944</v>
+        <v>1.040857474744691</v>
       </c>
       <c r="N14">
-        <v>1.016822851025668</v>
+        <v>1.013222895648256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032025167403501</v>
+        <v>0.9988979807246763</v>
       </c>
       <c r="D15">
-        <v>1.04247882995864</v>
+        <v>1.022591330115969</v>
       </c>
       <c r="E15">
-        <v>1.049869092964988</v>
+        <v>1.016441093511766</v>
       </c>
       <c r="F15">
-        <v>1.055683446061424</v>
+        <v>1.026785955222136</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042056774732513</v>
+        <v>1.049137433248566</v>
       </c>
       <c r="J15">
-        <v>1.038585037238509</v>
+        <v>1.028165310090317</v>
       </c>
       <c r="K15">
-        <v>1.046006414481692</v>
+        <v>1.037029788744594</v>
       </c>
       <c r="L15">
-        <v>1.053369991833933</v>
+        <v>1.030989231882514</v>
       </c>
       <c r="M15">
-        <v>1.059163639388454</v>
+        <v>1.041150585701769</v>
       </c>
       <c r="N15">
-        <v>1.016836825087005</v>
+        <v>1.013294066968552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032489092605905</v>
+        <v>1.001316490913607</v>
       </c>
       <c r="D16">
-        <v>1.042844708281179</v>
+        <v>1.02440415997249</v>
       </c>
       <c r="E16">
-        <v>1.050368610554492</v>
+        <v>1.018746616417143</v>
       </c>
       <c r="F16">
-        <v>1.056153608148876</v>
+        <v>1.029014676693475</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042176792566457</v>
+        <v>1.049948988601269</v>
       </c>
       <c r="J16">
-        <v>1.038829988180486</v>
+        <v>1.029401355185622</v>
       </c>
       <c r="K16">
-        <v>1.046258003027901</v>
+        <v>1.038310913267527</v>
       </c>
       <c r="L16">
-        <v>1.053755685309412</v>
+        <v>1.03274973919284</v>
       </c>
       <c r="M16">
-        <v>1.059520802249792</v>
+        <v>1.042843905242339</v>
       </c>
       <c r="N16">
-        <v>1.01691814459049</v>
+        <v>1.013704836229381</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032780305488379</v>
+        <v>1.002817240836915</v>
       </c>
       <c r="D17">
-        <v>1.043074394433468</v>
+        <v>1.025530322974936</v>
       </c>
       <c r="E17">
-        <v>1.050682415072424</v>
+        <v>1.020180324752711</v>
       </c>
       <c r="F17">
-        <v>1.056448878605194</v>
+        <v>1.030399864985873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042251752529192</v>
+        <v>1.050449781048203</v>
       </c>
       <c r="J17">
-        <v>1.038983608652525</v>
+        <v>1.030167585470066</v>
       </c>
       <c r="K17">
-        <v>1.046415764331684</v>
+        <v>1.039105046403278</v>
       </c>
       <c r="L17">
-        <v>1.05399787294838</v>
+        <v>1.033843535825934</v>
       </c>
       <c r="M17">
-        <v>1.059744969624786</v>
+        <v>1.043895073323541</v>
       </c>
       <c r="N17">
-        <v>1.016969140070335</v>
+        <v>1.013959485598564</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032950238229369</v>
+        <v>1.003686847460326</v>
       </c>
       <c r="D18">
-        <v>1.043208430831498</v>
+        <v>1.026183312534715</v>
       </c>
       <c r="E18">
-        <v>1.050865620716208</v>
+        <v>1.021012179651188</v>
       </c>
       <c r="F18">
-        <v>1.056621230352533</v>
+        <v>1.031203292423581</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042295358334024</v>
+        <v>1.050738943659796</v>
       </c>
       <c r="J18">
-        <v>1.039073201353332</v>
+        <v>1.030611290084051</v>
       </c>
       <c r="K18">
-        <v>1.046507764072998</v>
+        <v>1.039564891431882</v>
       </c>
       <c r="L18">
-        <v>1.054139227235973</v>
+        <v>1.034477811325551</v>
       </c>
       <c r="M18">
-        <v>1.05987576840396</v>
+        <v>1.044504309012745</v>
       </c>
       <c r="N18">
-        <v>1.016998879640681</v>
+        <v>1.01410695032333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033008193257401</v>
+        <v>1.003982396212676</v>
       </c>
       <c r="D19">
-        <v>1.043254144633628</v>
+        <v>1.02640531343412</v>
       </c>
       <c r="E19">
-        <v>1.050928117665454</v>
+        <v>1.021295082813259</v>
       </c>
       <c r="F19">
-        <v>1.056680019060665</v>
+        <v>1.0314764808709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042310206901617</v>
+        <v>1.050837045557636</v>
       </c>
       <c r="J19">
-        <v>1.039103748154267</v>
+        <v>1.030762040310133</v>
       </c>
       <c r="K19">
-        <v>1.046539130212303</v>
+        <v>1.039721122254859</v>
       </c>
       <c r="L19">
-        <v>1.054187440661298</v>
+        <v>1.034693459244284</v>
       </c>
       <c r="M19">
-        <v>1.059920375110768</v>
+        <v>1.044711389168577</v>
       </c>
       <c r="N19">
-        <v>1.017009019164266</v>
+        <v>1.014157052575846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032749053517104</v>
+        <v>1.002656822655391</v>
       </c>
       <c r="D20">
-        <v>1.043049744612469</v>
+        <v>1.025409899539111</v>
       </c>
       <c r="E20">
-        <v>1.050648729343794</v>
+        <v>1.020026958972522</v>
       </c>
       <c r="F20">
-        <v>1.056417185883886</v>
+        <v>1.030251717982888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042243722137558</v>
+        <v>1.050396355882352</v>
       </c>
       <c r="J20">
-        <v>1.038967127811848</v>
+        <v>1.030085711024611</v>
       </c>
       <c r="K20">
-        <v>1.046398840070148</v>
+        <v>1.039020192194904</v>
       </c>
       <c r="L20">
-        <v>1.053971879149634</v>
+        <v>1.033726567982583</v>
       </c>
       <c r="M20">
-        <v>1.059720913842525</v>
+        <v>1.043782697228137</v>
       </c>
       <c r="N20">
-        <v>1.016963669275587</v>
+        <v>1.013932275008741</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031907429878897</v>
+        <v>0.9982787296901735</v>
       </c>
       <c r="D21">
-        <v>1.042385981225418</v>
+        <v>1.022127564856617</v>
       </c>
       <c r="E21">
-        <v>1.049742399649678</v>
+        <v>1.015851738251893</v>
       </c>
       <c r="F21">
-        <v>1.05556416973539</v>
+        <v>1.02621599732971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04202619977566</v>
+        <v>1.04892877509549</v>
       </c>
       <c r="J21">
-        <v>1.03852282945381</v>
+        <v>1.027848593204613</v>
       </c>
       <c r="K21">
-        <v>1.045942514266241</v>
+        <v>1.036701509731998</v>
       </c>
       <c r="L21">
-        <v>1.053272133731193</v>
+        <v>1.030538891721862</v>
       </c>
       <c r="M21">
-        <v>1.059072987690654</v>
+        <v>1.040717157860914</v>
       </c>
       <c r="N21">
-        <v>1.016816171982573</v>
+        <v>1.013188817854692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031378940692176</v>
+        <v>0.9954714658425077</v>
       </c>
       <c r="D22">
-        <v>1.041969240341365</v>
+        <v>1.020027247325618</v>
       </c>
       <c r="E22">
-        <v>1.049174090190882</v>
+        <v>1.013184840701175</v>
       </c>
       <c r="F22">
-        <v>1.055028990569373</v>
+        <v>1.023635720435711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04188838631387</v>
+        <v>1.047978658371995</v>
       </c>
       <c r="J22">
-        <v>1.038243386808157</v>
+        <v>1.026411715618108</v>
       </c>
       <c r="K22">
-        <v>1.045655436001175</v>
+        <v>1.03521213384568</v>
       </c>
       <c r="L22">
-        <v>1.052833002565026</v>
+        <v>1.028499551481521</v>
       </c>
       <c r="M22">
-        <v>1.058666035415367</v>
+        <v>1.038753053685832</v>
       </c>
       <c r="N22">
-        <v>1.016723390675708</v>
+        <v>1.012711346926161</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03165903835722</v>
+        <v>0.9969649602138581</v>
       </c>
       <c r="D23">
-        <v>1.042190105645233</v>
+        <v>1.021144213447413</v>
       </c>
       <c r="E23">
-        <v>1.04947521544309</v>
+        <v>1.014602678062578</v>
       </c>
       <c r="F23">
-        <v>1.055312589800487</v>
+        <v>1.025007739191276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041961542924634</v>
+        <v>1.048484974254113</v>
       </c>
       <c r="J23">
-        <v>1.038391533167873</v>
+        <v>1.027176368121099</v>
       </c>
       <c r="K23">
-        <v>1.045807637078229</v>
+        <v>1.036004731893966</v>
       </c>
       <c r="L23">
-        <v>1.053065715340548</v>
+        <v>1.029584054911054</v>
       </c>
       <c r="M23">
-        <v>1.0588817276608</v>
+        <v>1.039797819449902</v>
       </c>
       <c r="N23">
-        <v>1.016772579807829</v>
+        <v>1.012965434482154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032763174711802</v>
+        <v>1.002729326484427</v>
       </c>
       <c r="D24">
-        <v>1.043060882606975</v>
+        <v>1.025464325687383</v>
       </c>
       <c r="E24">
-        <v>1.050663949953387</v>
+        <v>1.020096271952147</v>
       </c>
       <c r="F24">
-        <v>1.056431506073021</v>
+        <v>1.030318673213279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042247351087726</v>
+        <v>1.050420505494994</v>
       </c>
       <c r="J24">
-        <v>1.038974574830117</v>
+        <v>1.030122716514215</v>
       </c>
       <c r="K24">
-        <v>1.04640648747668</v>
+        <v>1.039058544527853</v>
       </c>
       <c r="L24">
-        <v>1.053983624349525</v>
+        <v>1.033779432188114</v>
       </c>
       <c r="M24">
-        <v>1.059731783473968</v>
+        <v>1.043833487162333</v>
       </c>
       <c r="N24">
-        <v>1.016966141308469</v>
+        <v>1.013944573599127</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034047327591602</v>
+        <v>1.009194001759735</v>
       </c>
       <c r="D25">
-        <v>1.044073887928128</v>
+        <v>1.030326007919656</v>
       </c>
       <c r="E25">
-        <v>1.052050022866716</v>
+        <v>1.026299516914605</v>
       </c>
       <c r="F25">
-        <v>1.057734860563635</v>
+        <v>1.036304962999284</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042574419752872</v>
+        <v>1.052551606389456</v>
       </c>
       <c r="J25">
-        <v>1.039650705439779</v>
+        <v>1.033415863799212</v>
       </c>
       <c r="K25">
-        <v>1.047100639762158</v>
+        <v>1.042471109611293</v>
       </c>
       <c r="L25">
-        <v>1.055052343650818</v>
+        <v>1.03850283780408</v>
       </c>
       <c r="M25">
-        <v>1.060720013711363</v>
+        <v>1.048364670294039</v>
       </c>
       <c r="N25">
-        <v>1.017190551789341</v>
+        <v>1.015039099918457</v>
       </c>
     </row>
   </sheetData>
